--- a/Backend/controllers/gen/room.xlsx
+++ b/Backend/controllers/gen/room.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\TT_GEN_WEB\Backend\controllers\gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67618986-C14C-47DC-9F64-CDB1E24BFAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C451682B-DD5E-4DA7-99A5-D57A7717F7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3551A8D3-A32E-4A84-8119-6CA7F3939F11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{3551A8D3-A32E-4A84-8119-6CA7F3939F11}"/>
   </bookViews>
   <sheets>
     <sheet name="64" sheetId="2" r:id="rId1"/>
     <sheet name="65" sheetId="3" r:id="rId2"/>
     <sheet name="66" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="64 (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="65 (2)" sheetId="6" r:id="rId5"/>
+    <sheet name="64 (3)" sheetId="7" r:id="rId6"/>
+    <sheet name="65 (3)" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="102">
   <si>
     <t>5:00-5:30</t>
   </si>
@@ -1069,6 +1073,1735 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0677879-690B-4014-87CA-1A83309ABF77}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E00BCB-325A-4CDB-A80D-467EE96D4485}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E17:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23194F78-3BC2-4980-92CF-8FC739497B46}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708DDB2B-5323-4195-8D33-58388822EB15}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04929DC-A2CE-4E3B-AE02-E324F044DCAE}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="25.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="C18:C19"/>
@@ -1110,11 +2843,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0677879-690B-4014-87CA-1A83309ABF77}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC37C774-E193-4324-842B-491E8277EA5F}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1442,354 +3175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E00BCB-325A-4CDB-A80D-467EE96D4485}">
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="25.77734375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB4D0AC-42AB-4328-9F16-5C378B2535A9}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Backend/controllers/gen/room.xlsx
+++ b/Backend/controllers/gen/room.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\TT_GEN_WEB\Backend\controllers\gen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D89AF1-F039-45D6-8147-243E18B46B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>sdadas</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>sdada</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>dasdasd</t>
+  </si>
+  <si>
+    <t>dadsada</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +86,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +433,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A9:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="H11:H14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Backend/controllers/gen/room.xlsx
+++ b/Backend/controllers/gen/room.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\TT_GEN_WEB\Backend\controllers\gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D89AF1-F039-45D6-8147-243E18B46B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125D31A-0EDA-49AD-AAB6-7419925EA2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,49 +25,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>sdadas</t>
-  </si>
-  <si>
-    <t>dsad</t>
-  </si>
-  <si>
-    <t>sdada</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>sda</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>dasdasd</t>
-  </si>
-  <si>
-    <t>dadsada</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+  <si>
+    <t>Class/Lab</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>08:00-08:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)EVS (PT)</t>
+  </si>
+  <si>
+    <t>(SY-I2)UHV (DE)</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM (AKS)</t>
+  </si>
+  <si>
+    <t>(SY-I1)AJ(LR)</t>
+  </si>
+  <si>
+    <t>08:30-09:00</t>
+  </si>
+  <si>
+    <t>09:00-09:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)FLAT (MM)</t>
+  </si>
+  <si>
+    <t>(SY-I2)CN (NK)</t>
+  </si>
+  <si>
+    <t>(SY-I1)II-E3:12CN (RM)</t>
+  </si>
+  <si>
+    <t>(SY-I3)CN (RS)</t>
+  </si>
+  <si>
+    <t>09:30-10:00</t>
+  </si>
+  <si>
+    <t>10:00-10:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)DAA (ARJ)</t>
+  </si>
+  <si>
+    <t>(SY-I1)UHV (RS)</t>
+  </si>
+  <si>
+    <t>10:30-11:00</t>
+  </si>
+  <si>
+    <t>(SY-I2)DAA (SC)</t>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)BDA (SM)</t>
+  </si>
+  <si>
+    <t>11:30-12:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)UHV (NAH)</t>
+  </si>
+  <si>
+    <t>(SY-I1)FLAT(ARJ)</t>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)SE (HD)</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM-TUT (AKS)</t>
+  </si>
+  <si>
+    <t>12:30-01:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)I3-1:FLAT(T) (MM)</t>
+  </si>
+  <si>
+    <t>(SY-I2)UHV (DR)</t>
+  </si>
+  <si>
+    <t>01:00-01:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)IACV (SC)</t>
+  </si>
+  <si>
+    <t>(SY-I1)CN (RM)</t>
+  </si>
+  <si>
+    <t>01:30-02:00</t>
+  </si>
+  <si>
+    <t>02:00-02:30</t>
+  </si>
+  <si>
+    <t>02:30-03:00</t>
+  </si>
+  <si>
+    <t>(TY-I1)PDC (VS)</t>
+  </si>
+  <si>
+    <t>(SY-I1)DAA (MM)</t>
+  </si>
+  <si>
+    <t>03:00-03:30</t>
+  </si>
+  <si>
+    <t>03:30-04:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)UHV (PJ)</t>
+  </si>
+  <si>
+    <t>04:00-04:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)AM (NAF)</t>
+  </si>
+  <si>
+    <t>04:30-05:00</t>
+  </si>
+  <si>
+    <t>05:00-05:30</t>
+  </si>
+  <si>
+    <t>(SY-I1)ADS (PJ)</t>
+  </si>
+  <si>
+    <t>05:30-06:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -116,43 +268,120 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,206 +662,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A9:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C01B977-AC58-48E7-807E-3D2ED5752F76}">
+  <dimension ref="A8:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="45.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="H11:H14"/>
+  <mergeCells count="29">
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backend/controllers/gen/room.xlsx
+++ b/Backend/controllers/gen/room.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\TT_GEN_WEB\Backend\controllers\gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7125D31A-0EDA-49AD-AAB6-7419925EA2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E88FF2F-1F23-4123-BADC-D1CCD1F656C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="origi" sheetId="6" r:id="rId1"/>
+    <sheet name="test" sheetId="5" r:id="rId2"/>
+    <sheet name="MAIN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="56">
   <si>
     <t>Class/Lab</t>
   </si>
@@ -187,6 +189,12 @@
   </si>
   <si>
     <t>05:30-06:00</t>
+  </si>
+  <si>
+    <t>64sadassdasd</t>
+  </si>
+  <si>
+    <t>64original</t>
   </si>
 </sst>
 </file>
@@ -365,19 +373,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -662,11 +670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C01B977-AC58-48E7-807E-3D2ED5752F76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006937E1-B775-44E4-BF69-3B97B2A437A9}">
   <dimension ref="A8:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,8 +686,8 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2">
-        <v>64</v>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -721,18 +729,18 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -743,12 +751,12 @@
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -757,20 +765,20 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -779,12 +787,12 @@
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -793,18 +801,18 @@
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -813,12 +821,12 @@
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -829,16 +837,16 @@
       <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -847,16 +855,16 @@
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -867,16 +875,16 @@
       <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -885,14 +893,14 @@
       <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -903,16 +911,16 @@
       <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -921,12 +929,12 @@
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -935,12 +943,12 @@
       <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -949,16 +957,16 @@
       <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -967,14 +975,14 @@
       <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
@@ -983,14 +991,14 @@
       <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -999,14 +1007,14 @@
       <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
@@ -1015,12 +1023,12 @@
       <c r="B27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
@@ -1029,14 +1037,14 @@
       <c r="B28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -1045,12 +1053,12 @@
       <c r="B29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1086,4 +1094,858 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E462500-51FA-4AFE-B7A9-72C5DE193A41}">
+  <dimension ref="A8:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="D26:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333527F4-6B28-4ED7-9A32-9F54EC9AB01E}">
+  <dimension ref="A8:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="D26:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Backend/controllers/gen/room.xlsx
+++ b/Backend/controllers/gen/room.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\TT_GEN_WEB\Backend\controllers\gen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2C779D-697C-424E-81E5-2588B5004ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="64" sheetId="2" r:id="rId1"/>
+    <sheet name="65" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +26,229 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+  <si>
+    <t>05:30-06:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)ADS (PJ)</t>
+  </si>
+  <si>
+    <t>05:00-05:30</t>
+  </si>
+  <si>
+    <t>04:30-05:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)AM (NAF)</t>
+  </si>
+  <si>
+    <t>04:00-04:30</t>
+  </si>
+  <si>
+    <t>(SY-I1)UHV (PJ)</t>
+  </si>
+  <si>
+    <t>03:30-04:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)CN (RS)</t>
+  </si>
+  <si>
+    <t>03:00-03:30</t>
+  </si>
+  <si>
+    <t>(SY-I1)DAA (MM)</t>
+  </si>
+  <si>
+    <t>(TY-I1)PDC (VS)</t>
+  </si>
+  <si>
+    <t>02:30-03:00</t>
+  </si>
+  <si>
+    <t>02:00-02:30</t>
+  </si>
+  <si>
+    <t>01:30-02:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)CN (RM)</t>
+  </si>
+  <si>
+    <t>(TY-I1)IACV (SC)</t>
+  </si>
+  <si>
+    <t>01:00-01:30</t>
+  </si>
+  <si>
+    <t>(SY-I2)UHV (DR)</t>
+  </si>
+  <si>
+    <t>(SY-I3)I3-1:FLAT(T) (MM)</t>
+  </si>
+  <si>
+    <t>12:30-01:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM-TUT (AKS)</t>
+  </si>
+  <si>
+    <t>(TY-I1)SE (HD)</t>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
+  </si>
+  <si>
+    <t>(SY-I2)CN (NK)</t>
+  </si>
+  <si>
+    <t>(SY-I1)FLAT(ARJ)</t>
+  </si>
+  <si>
+    <t>(SY-I3)UHV (NAH)</t>
+  </si>
+  <si>
+    <t>11:30-12:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM (AKS)</t>
+  </si>
+  <si>
+    <t>(TY-I1)BDA (SM)</t>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+  </si>
+  <si>
+    <t>(SY-I2)DAA (SC)</t>
+  </si>
+  <si>
+    <t>10:30-11:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)DAA (ARJ)</t>
+  </si>
+  <si>
+    <t>(SY-I1)UHV (RS)</t>
+  </si>
+  <si>
+    <t>10:00-10:30</t>
+  </si>
+  <si>
+    <t>09:30-10:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)II-E3:12CN (RM)</t>
+  </si>
+  <si>
+    <t>(SY-I3)FLAT (MM)</t>
+  </si>
+  <si>
+    <t>09:00-09:30</t>
+  </si>
+  <si>
+    <t>08:30-09:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)AJ(LR)</t>
+  </si>
+  <si>
+    <t>(SY-I2)UHV (DE)</t>
+  </si>
+  <si>
+    <t>(SY-I3)EVS (PT)</t>
+  </si>
+  <si>
+    <t>08:00-08:30</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Class/Lab</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM(MJ)</t>
+  </si>
+  <si>
+    <t>(TY-I1)HONORS (AJ)</t>
+  </si>
+  <si>
+    <t>(TY-I1)SC (PS)</t>
+  </si>
+  <si>
+    <t>(SY-I3)UHV(T) (SA,PH)</t>
+  </si>
+  <si>
+    <t>(SY-I1)I1-2:PY (PH)</t>
+  </si>
+  <si>
+    <t>(SY-I1)FLAT (ARJ)</t>
+  </si>
+  <si>
+    <t>(TY-I1)PDC (NKS) (SY-I1)AM (AKS)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +267,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +697,828 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B51FB75-76F2-4113-93B6-BBEAB66E8A84}">
+  <dimension ref="A8:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="45.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.77734375" style="1"/>
+    <col min="2" max="2" width="45.77734375" style="2"/>
+    <col min="3" max="16384" width="45.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D66D207-17F7-4038-856E-AC11C9222E0C}">
+  <dimension ref="A8:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="45.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.77734375" style="1"/>
+    <col min="2" max="2" width="45.77734375" style="2"/>
+    <col min="3" max="16384" width="45.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>17</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="D19:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backend/controllers/gen/room.xlsx
+++ b/Backend/controllers/gen/room.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Downloads\ATTENDENCE\TT_GEN_WEB\Backend\controllers\gen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D221F-DFBE-4241-9D8F-5385F84DC0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="64" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +25,208 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+  <si>
+    <t>05:30-06:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)ADS (PJ)</t>
+  </si>
+  <si>
+    <t>05:00-05:30</t>
+  </si>
+  <si>
+    <t>04:30-05:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)AM (NAF)</t>
+  </si>
+  <si>
+    <t>04:00-04:30</t>
+  </si>
+  <si>
+    <t>(SY-I1)UHV (PJ)</t>
+  </si>
+  <si>
+    <t>03:30-04:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)CN (RS)</t>
+  </si>
+  <si>
+    <t>03:00-03:30</t>
+  </si>
+  <si>
+    <t>(SY-I1)DAA (MM)</t>
+  </si>
+  <si>
+    <t>(TY-I1)PDC (VS)</t>
+  </si>
+  <si>
+    <t>02:30-03:00</t>
+  </si>
+  <si>
+    <t>02:00-02:30</t>
+  </si>
+  <si>
+    <t>01:30-02:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)CN (RM)</t>
+  </si>
+  <si>
+    <t>(TY-I1)IACV (SC)</t>
+  </si>
+  <si>
+    <t>01:00-01:30</t>
+  </si>
+  <si>
+    <t>(SY-I2)UHV (DR)</t>
+  </si>
+  <si>
+    <t>(SY-I3)I3-1:FLAT(T) (MM)</t>
+  </si>
+  <si>
+    <t>12:30-01:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM-TUT (AKS)</t>
+  </si>
+  <si>
+    <t>(TY-I1)SE (HD)</t>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
+  </si>
+  <si>
+    <t>(SY-I2)CN (NK)</t>
+  </si>
+  <si>
+    <t>(SY-I1)FLAT(ARJ)</t>
+  </si>
+  <si>
+    <t>(SY-I3)UHV (NAH)</t>
+  </si>
+  <si>
+    <t>11:30-12:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM (AKS)</t>
+  </si>
+  <si>
+    <t>(TY-I1)BDA (SM)</t>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+  </si>
+  <si>
+    <t>(SY-I2)DAA (SC)</t>
+  </si>
+  <si>
+    <t>10:30-11:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)DAA (ARJ)</t>
+  </si>
+  <si>
+    <t>(SY-I1)UHV (RS)</t>
+  </si>
+  <si>
+    <t>10:00-10:30</t>
+  </si>
+  <si>
+    <t>09:30-10:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)II-E3:12CN (RM)</t>
+  </si>
+  <si>
+    <t>(SY-I3)FLAT (MM)</t>
+  </si>
+  <si>
+    <t>09:00-09:30</t>
+  </si>
+  <si>
+    <t>08:30-09:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)AJ(LR)</t>
+  </si>
+  <si>
+    <t>(SY-I2)UHV (DE)</t>
+  </si>
+  <si>
+    <t>(SY-I3)EVS (PT)</t>
+  </si>
+  <si>
+    <t>08:00-08:30</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Class/Lab</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +245,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +675,441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D9C3EB-F7C2-4B4F-94CB-EA97F31E2D3D}">
+  <dimension ref="A8:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="45.77734375" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.77734375" style="1"/>
+    <col min="2" max="2" width="45.77734375" style="2"/>
+    <col min="3" max="16384" width="45.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="13">
+        <v>64</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>19</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backend/controllers/gen/room.xlsx
+++ b/Backend/controllers/gen/room.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Downloads\ATTENDENCE\TT_GEN_WEB-1\Backend\controllers\gen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E77A70-CEE4-48F5-BCB9-1C24810A8DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +25,216 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+  <si>
+    <t>Class/Lab</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>08:00-08:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)EVS (PT)</t>
+  </si>
+  <si>
+    <t>(SY-I2)UHV (DE)</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM (AKS)</t>
+  </si>
+  <si>
+    <t>(SY-I1)AJ(LR)</t>
+  </si>
+  <si>
+    <t>08:30-09:00</t>
+  </si>
+  <si>
+    <t>09:00-09:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)FLAT (MM)</t>
+  </si>
+  <si>
+    <t>(SY-I2)CN (NK)</t>
+  </si>
+  <si>
+    <t>(SY-I1)II-E3:12CN (RM)</t>
+  </si>
+  <si>
+    <t>(SY-I3)CN (RS)</t>
+  </si>
+  <si>
+    <t>09:30-10:00</t>
+  </si>
+  <si>
+    <t>10:00-10:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)DAA (ARJ)</t>
+  </si>
+  <si>
+    <t>(SY-I1)UHV (RS)</t>
+  </si>
+  <si>
+    <t>10:30-11:00</t>
+  </si>
+  <si>
+    <t>(SY-I2)DAA (SC)</t>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)BDA (SM)</t>
+  </si>
+  <si>
+    <t>11:30-12:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)UHV (NAH)</t>
+  </si>
+  <si>
+    <t>(SY-I1)FLAT(ARJ)</t>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)SE (HD)</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM-TUT (AKS)</t>
+  </si>
+  <si>
+    <t>12:30-01:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)I3-1:FLAT(T) (MM)</t>
+  </si>
+  <si>
+    <t>(SY-I2)UHV (DR)</t>
+  </si>
+  <si>
+    <t>01:00-01:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)IACV (SC)</t>
+  </si>
+  <si>
+    <t>(SY-I1)CN (RM)</t>
+  </si>
+  <si>
+    <t>01:30-02:00</t>
+  </si>
+  <si>
+    <t>02:00-02:30</t>
+  </si>
+  <si>
+    <t>02:30-03:00</t>
+  </si>
+  <si>
+    <t>(TY-I1)PDC (VS)</t>
+  </si>
+  <si>
+    <t>(SY-I1)DAA (MM)</t>
+  </si>
+  <si>
+    <t>03:00-03:30</t>
+  </si>
+  <si>
+    <t>03:30-04:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)UHV (PJ)</t>
+  </si>
+  <si>
+    <t>04:00-04:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)AM (NAF)</t>
+  </si>
+  <si>
+    <t>04:30-05:00</t>
+  </si>
+  <si>
+    <t>05:00-05:30</t>
+  </si>
+  <si>
+    <t>(SY-I1)ADS (PJ)</t>
+  </si>
+  <si>
+    <t>05:30-06:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK              CMON              MANN              NK              </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="55"/>
+      <color rgb="FFA9A9A9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,10 +248,116 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,8 +366,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +689,980 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC13029-F432-42E1-9841-7448F1417795}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A8:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:H39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A34:H39"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="D26:D27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A8:I29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="D26:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Backend/controllers/gen/room.xlsx
+++ b/Backend/controllers/gen/room.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Downloads\ATTENDENCE\TT_GEN_WEB-1\Backend\controllers\gen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FA6D3C-02D8-4F8F-ACD1-DC81B3DCE441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,196 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>08:00-08:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)EVS (PT)</t>
+  </si>
+  <si>
+    <t>(SY-I2)UHV (DE)</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM (AKS)</t>
+  </si>
+  <si>
+    <t>(SY-I1)AJ(LR)</t>
+  </si>
+  <si>
+    <t>08:30-09:00</t>
+  </si>
+  <si>
+    <t>09:00-09:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)FLAT (MM)</t>
+  </si>
+  <si>
+    <t>(SY-I2)CN (NK)</t>
+  </si>
+  <si>
+    <t>(SY-I1)II-E3:12CN (RM)</t>
+  </si>
+  <si>
+    <t>(SY-I3)CN (RS)</t>
+  </si>
+  <si>
+    <t>09:30-10:00</t>
+  </si>
+  <si>
+    <t>10:00-10:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)DAA (ARJ)</t>
+  </si>
+  <si>
+    <t>(SY-I1)UHV (RS)</t>
+  </si>
+  <si>
+    <t>10:30-11:00</t>
+  </si>
+  <si>
+    <t>(SY-I2)DAA (SC)</t>
+  </si>
+  <si>
+    <t>11:00-11:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)BDA (SM)</t>
+  </si>
+  <si>
+    <t>11:30-12:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)UHV (NAH)</t>
+  </si>
+  <si>
+    <t>(SY-I1)FLAT(ARJ)</t>
+  </si>
+  <si>
+    <t>12:00-12:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)SE (HD)</t>
+  </si>
+  <si>
+    <t>(SY-I1)AM-TUT (AKS)</t>
+  </si>
+  <si>
+    <t>12:30-01:00</t>
+  </si>
+  <si>
+    <t>(SY-I3)I3-1:FLAT(T) (MM)</t>
+  </si>
+  <si>
+    <t>(SY-I2)UHV (DR)</t>
+  </si>
+  <si>
+    <t>01:00-01:30</t>
+  </si>
+  <si>
+    <t>(TY-I1)IACV (SC)</t>
+  </si>
+  <si>
+    <t>(SY-I1)CN (RM)</t>
+  </si>
+  <si>
+    <t>01:30-02:00</t>
+  </si>
+  <si>
+    <t>02:00-02:30</t>
+  </si>
+  <si>
+    <t>02:30-03:00</t>
+  </si>
+  <si>
+    <t>(TY-I1)PDC (VS)</t>
+  </si>
+  <si>
+    <t>(SY-I1)DAA (MM)</t>
+  </si>
+  <si>
+    <t>03:00-03:30</t>
+  </si>
+  <si>
+    <t>03:30-04:00</t>
+  </si>
+  <si>
+    <t>(SY-I1)UHV (PJ)</t>
+  </si>
+  <si>
+    <t>04:00-04:30</t>
+  </si>
+  <si>
+    <t>(SY-I3)AM (NAF)</t>
+  </si>
+  <si>
+    <t>04:30-05:00</t>
+  </si>
+  <si>
+    <t>05:00-05:30</t>
+  </si>
+  <si>
+    <t>(SY-I1)ADS (PJ)</t>
+  </si>
+  <si>
+    <t>05:30-06:00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,10 +224,116 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,8 +342,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +654,561 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="40.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C27:C28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>